--- a/python/3.pyp/cookel.xlsx
+++ b/python/3.pyp/cookel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="66">
   <si>
     <t>﻿</t>
   </si>
@@ -161,6 +161,57 @@
   </si>
   <si>
     <t>0c873f14f290b49d</t>
+  </si>
+  <si>
+    <t>414893906E0B672363BA7146EC054C69:FG=1</t>
+  </si>
+  <si>
+    <t>BDRCVFR[feWj1Vr5u3D]</t>
+  </si>
+  <si>
+    <t>I67x6TjHwwYf0</t>
+  </si>
+  <si>
+    <t>BDUSS</t>
+  </si>
+  <si>
+    <t>VVWHZNVXJYd21WOC04dXJYRW5ZWWZZNXotN3hzRUpDZ0ZjbkFLN283d2VqUEJjRVFBQUFBJCQAAAAAAAAAAAEAAACWaFqcyfO353MAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAB7~yFwe~8hcdW</t>
+  </si>
+  <si>
+    <t>HMVT</t>
+  </si>
+  <si>
+    <t>6bcd52f51e9b3dce32bec4a3997715ac|1557048393|</t>
+  </si>
+  <si>
+    <t>1421_21109_28774_28720_28963_28832_28585_26350_28603_20719</t>
+  </si>
+  <si>
+    <t>eyJpdiI6ImRtRDVrMGR5VTV2MzlVQ1BxN0RLbkE9PSIsInZhbHVlIjoiUVJsVjBuejVuTGdSMFpITGJqVkFITENlVHZGNVVweGlyUDN2S0MzbnZTZz0iLCJtYWMiOiI4ZTZkNmVlZDc1ZmU0NGJiZGQ2ZThmNTUxOWNlNjRhOGIxODVmN2MxYzk5ZTA3Y2NiMGEzNmMyMmNmYjU0NDE3In0%3D</t>
+  </si>
+  <si>
+    <t>1KoXRTYwfprt9g3qoTkixWdLtDD</t>
+  </si>
+  <si>
+    <t>PSINO</t>
+  </si>
+  <si>
+    <t>locale</t>
+  </si>
+  <si>
+    <t>zh</t>
+  </si>
+  <si>
+    <t>1_913361300</t>
+  </si>
+  <si>
+    <t>pgv_si</t>
+  </si>
+  <si>
+    <t>s7556405248</t>
+  </si>
+  <si>
+    <t>eyJpdiI6InNUTis3QUlEREpwM3l1OUV2cnNUNmc9PSIsInZhbHVlIjoiNjYweWIwam9KZ0lEOVJEZ2xhaE1GVGphNlNCRFwvbUNiU0JPT2M3WEowXC84VXFoeW11aXVnaVpaYkM3UE5tMnRYIiwibWFjIjoiZWMwZjNjNDc5MGExZmU1NzllYzBhMjNkMjBkNjg4MGFlNTFmNmU0ZWFlMDY3MDkwY2I0Y2Q4YTY5YTc4YzZjYSJ9</t>
   </si>
 </sst>
 </file>
@@ -168,9 +219,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -196,6 +247,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -204,15 +262,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -227,67 +278,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,7 +303,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,10 +333,24 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -332,6 +361,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -360,181 +411,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,6 +617,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -577,15 +667,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,41 +686,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,152 +710,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -825,6 +876,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1145,13 +1211,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="34.25" customWidth="1"/>
     <col min="2" max="2" width="76" customWidth="1"/>
@@ -1458,6 +1524,614 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" ht="14.25" spans="1:10">
+      <c r="A32" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="8">
+        <v>11338654656012</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" ht="14.25" spans="1:10">
+      <c r="A33" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="10">
+        <v>1552980046034</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" ht="14.25" spans="1:10">
+      <c r="A34" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" ht="14.25" spans="1:10">
+      <c r="A35" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" ht="14.25" spans="1:10">
+      <c r="A36" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" ht="14.25" spans="1:10">
+      <c r="A37" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" ht="14.25" spans="1:10">
+      <c r="A38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" ht="14.25" spans="1:10">
+      <c r="A39" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" ht="14.25" spans="1:10">
+      <c r="A40" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" ht="14.25" spans="1:10">
+      <c r="A41" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" ht="14.25" spans="1:10">
+      <c r="A42" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="8">
+        <v>1557059173</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" ht="14.25" spans="1:10">
+      <c r="A43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="11">
+        <v>1.55627576415563e+39</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" ht="14.25" spans="1:10">
+      <c r="A44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+    </row>
+    <row r="45" ht="14.25" spans="1:10">
+      <c r="A45" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" ht="14.25" spans="1:10">
+      <c r="A46" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+    </row>
+    <row r="47" ht="14.25" spans="1:10">
+      <c r="A47" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="10">
+        <v>2</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+    </row>
+    <row r="48" ht="14.25" spans="1:10">
+      <c r="A48" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="8">
+        <v>1556266480</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+    </row>
+    <row r="49" ht="14.25" spans="1:10">
+      <c r="A49" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+    </row>
+    <row r="50" ht="14.25" spans="1:10">
+      <c r="A50" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+    </row>
+    <row r="51" ht="14.25" spans="1:10">
+      <c r="A51" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="10">
+        <v>0</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+    </row>
+    <row r="52" ht="14.25" spans="1:10">
+      <c r="A52" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" ht="14.25" spans="1:10">
+      <c r="A53" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="10">
+        <v>913361300</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+    </row>
+    <row r="54" ht="14.25" spans="1:10">
+      <c r="A54" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+    </row>
+    <row r="55" ht="14.25" spans="1:10">
+      <c r="A55" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" s="10">
+        <v>2541194240</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+    </row>
+    <row r="56" ht="14.25" spans="1:10">
+      <c r="A56" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="8">
+        <v>3015892992</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+    </row>
+    <row r="57" ht="14.25" spans="1:10">
+      <c r="A57" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" s="10">
+        <v>462190070</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+    </row>
+    <row r="58" ht="14.25" spans="1:10">
+      <c r="A58" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+    </row>
+    <row r="59" ht="14.25" spans="1:10">
+      <c r="A59" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+    </row>
+    <row r="60" ht="14.25" spans="1:10">
+      <c r="A60" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" s="8">
+        <v>913361300</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+    </row>
+    <row r="61" ht="14.25" spans="1:10">
+      <c r="A61" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+    </row>
+    <row r="62" ht="14.25" spans="1:10">
+      <c r="A62" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+    </row>
+    <row r="63" ht="14.25" spans="1:10">
+      <c r="A63" s="9"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+    </row>
+    <row r="64" ht="14.25" spans="1:10">
+      <c r="A64" s="7"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+    </row>
+    <row r="65" spans="4:10">
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
